--- a/proyecto/proyecto/IMACEC_NM.xlsx
+++ b/proyecto/proyecto/IMACEC_NM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raolea/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seba\Documents\Universidad\2022-2\Series de tiempo\git\Series_de_tiempo\proyecto\proyecto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E80B87C6-3A37-EC47-9816-BBBEEA52E71F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA0F472B-779E-429A-9C98-943E0133356B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IMACEC" sheetId="1" r:id="rId1"/>
@@ -391,15 +391,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C118"/>
+  <dimension ref="A1:C199"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="290" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="G126" sqref="G126"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -410,7 +410,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2013</v>
       </c>
@@ -421,7 +421,7 @@
         <v>86.378926477736002</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2013</v>
       </c>
@@ -432,7 +432,7 @@
         <v>82.127130162388994</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2013</v>
       </c>
@@ -443,7 +443,7 @@
         <v>92.318829068930995</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2013</v>
       </c>
@@ -454,7 +454,7 @@
         <v>91.549801621528999</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2013</v>
       </c>
@@ -465,7 +465,7 @@
         <v>90.309000506798</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2013</v>
       </c>
@@ -476,7 +476,7 @@
         <v>87.466252759952994</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2013</v>
       </c>
@@ -487,7 +487,7 @@
         <v>84.762261065988994</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2013</v>
       </c>
@@ -498,7 +498,7 @@
         <v>87.800289018925</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2013</v>
       </c>
@@ -509,7 +509,7 @@
         <v>83.875231643777994</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2013</v>
       </c>
@@ -520,7 +520,7 @@
         <v>91.412441075152998</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2013</v>
       </c>
@@ -531,7 +531,7 @@
         <v>93.678178505754005</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2013</v>
       </c>
@@ -542,7 +542,7 @@
         <v>95.546257369464001</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2014</v>
       </c>
@@ -553,7 +553,7 @@
         <v>87.854424384031006</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2014</v>
       </c>
@@ -564,7 +564,7 @@
         <v>84.172938969065001</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2014</v>
       </c>
@@ -575,7 +575,7 @@
         <v>94.935845360974994</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2014</v>
       </c>
@@ -586,7 +586,7 @@
         <v>92.490263100426006</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2014</v>
       </c>
@@ -597,7 +597,7 @@
         <v>91.499687117822006</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2014</v>
       </c>
@@ -608,7 +608,7 @@
         <v>88.925074717675997</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2014</v>
       </c>
@@ -619,7 +619,7 @@
         <v>85.298761802073997</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2014</v>
       </c>
@@ -630,7 +630,7 @@
         <v>88.601829950791</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2014</v>
       </c>
@@ -641,7 +641,7 @@
         <v>86.337958061856995</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2014</v>
       </c>
@@ -652,7 +652,7 @@
         <v>93.035137627970002</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2014</v>
       </c>
@@ -663,7 +663,7 @@
         <v>94.822542337087</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2014</v>
       </c>
@@ -674,7 +674,7 @@
         <v>97.837214191266995</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2015</v>
       </c>
@@ -685,7 +685,7 @@
         <v>89.228365101931999</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2015</v>
       </c>
@@ -696,7 +696,7 @@
         <v>86.648061425912005</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2015</v>
       </c>
@@ -707,7 +707,7 @@
         <v>97.114561241708003</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2015</v>
       </c>
@@ -718,7 +718,7 @@
         <v>94.932174854365996</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2015</v>
       </c>
@@ -729,7 +729,7 @@
         <v>92.823486250247996</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2015</v>
       </c>
@@ -740,7 +740,7 @@
         <v>91.116817232838002</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2015</v>
       </c>
@@ -751,7 +751,7 @@
         <v>87.992219669826994</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2015</v>
       </c>
@@ -762,7 +762,7 @@
         <v>91.016793370035998</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2015</v>
       </c>
@@ -773,7 +773,7 @@
         <v>89.442443379354003</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2015</v>
       </c>
@@ -784,7 +784,7 @@
         <v>94.699645559041997</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2015</v>
       </c>
@@ -795,7 +795,7 @@
         <v>97.765735086077996</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2015</v>
       </c>
@@ -806,7 +806,7 @@
         <v>100.63960785358</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2016</v>
       </c>
@@ -817,7 +817,7 @@
         <v>92.069391696439993</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2016</v>
       </c>
@@ -828,7 +828,7 @@
         <v>90.571077871780005</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2016</v>
       </c>
@@ -839,7 +839,7 @@
         <v>100.0052772528</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2016</v>
       </c>
@@ -850,7 +850,7 @@
         <v>96.015098674011</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2016</v>
       </c>
@@ -861,7 +861,7 @@
         <v>95.381416910444003</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2016</v>
       </c>
@@ -872,7 +872,7 @@
         <v>93.218056971783</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2016</v>
       </c>
@@ -883,7 +883,7 @@
         <v>88.862550651600998</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2016</v>
       </c>
@@ -894,7 +894,7 @@
         <v>93.773154547130005</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2016</v>
       </c>
@@ -905,7 +905,7 @@
         <v>91.233892825789994</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2016</v>
       </c>
@@ -916,7 +916,7 @@
         <v>94.934049395114002</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2016</v>
       </c>
@@ -927,7 +927,7 @@
         <v>98.976402393992998</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2016</v>
       </c>
@@ -938,7 +938,7 @@
         <v>102.59476471015</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2017</v>
       </c>
@@ -949,7 +949,7 @@
         <v>92.872590410116999</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2017</v>
       </c>
@@ -960,7 +960,7 @@
         <v>90.152129958149004</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>2017</v>
       </c>
@@ -971,7 +971,7 @@
         <v>102.10158796419999</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>2017</v>
       </c>
@@ -982,7 +982,7 @@
         <v>95.949158407965996</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>2017</v>
       </c>
@@ -993,7 +993,7 @@
         <v>97.334225578426</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>2017</v>
       </c>
@@ -1004,7 +1004,7 @@
         <v>94.645927140062</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>2017</v>
       </c>
@@ -1015,7 +1015,7 @@
         <v>90.608165015416006</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>2017</v>
       </c>
@@ -1026,7 +1026,7 @@
         <v>95.418293694674006</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>2017</v>
       </c>
@@ -1037,7 +1037,7 @@
         <v>92.238202016277995</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>2017</v>
       </c>
@@ -1048,7 +1048,7 @@
         <v>97.375384883658995</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>2017</v>
       </c>
@@ -1059,7 +1059,7 @@
         <v>102.42973030793</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>2017</v>
       </c>
@@ -1070,7 +1070,7 @@
         <v>105.05572666963</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>2018</v>
       </c>
@@ -1081,7 +1081,7 @@
         <v>96.837774947022993</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>2018</v>
       </c>
@@ -1092,7 +1092,7 @@
         <v>92.675903025763006</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>2018</v>
       </c>
@@ -1103,7 +1103,7 @@
         <v>105.27556914567</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>2018</v>
       </c>
@@ -1114,7 +1114,7 @@
         <v>102.67271571553</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>2018</v>
       </c>
@@ -1125,7 +1125,7 @@
         <v>102.03421713259</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>2018</v>
       </c>
@@ -1136,7 +1136,7 @@
         <v>98.937385106332997</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>2018</v>
       </c>
@@ -1147,7 +1147,7 @@
         <v>93.348361846301003</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>2018</v>
       </c>
@@ -1158,7 +1158,7 @@
         <v>98.342084359956999</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>2018</v>
       </c>
@@ -1169,7 +1169,7 @@
         <v>93.791446462953004</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>2018</v>
       </c>
@@ -1180,7 +1180,7 @@
         <v>102.51827306115</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>2018</v>
       </c>
@@ -1191,7 +1191,7 @@
         <v>105.39692429707</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>2018</v>
       </c>
@@ -1202,7 +1202,7 @@
         <v>108.16934489962</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>2019</v>
       </c>
@@ -1213,7 +1213,7 @@
         <v>99.370244640243001</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>2019</v>
       </c>
@@ -1224,7 +1224,7 @@
         <v>94.177727386859999</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>2019</v>
       </c>
@@ -1235,7 +1235,7 @@
         <v>107.25631432583</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>2019</v>
       </c>
@@ -1246,7 +1246,7 @@
         <v>104.83065880762</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>2019</v>
       </c>
@@ -1257,7 +1257,7 @@
         <v>104.54114248667</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>2019</v>
       </c>
@@ -1268,7 +1268,7 @@
         <v>100.15342249638999</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>2019</v>
       </c>
@@ -1279,7 +1279,7 @@
         <v>96.702712950099993</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>2019</v>
       </c>
@@ -1290,7 +1290,7 @@
         <v>101.63220998708</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>2019</v>
       </c>
@@ -1301,7 +1301,7 @@
         <v>96.986775646371001</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>2019</v>
       </c>
@@ -1312,7 +1312,7 @@
         <v>98.204026035311003</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>2019</v>
       </c>
@@ -1323,7 +1323,7 @@
         <v>101.04176060007001</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>2019</v>
       </c>
@@ -1334,7 +1334,7 @@
         <v>109.55862380919</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>2020</v>
       </c>
@@ -1345,7 +1345,7 @@
         <v>100.74725773642</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>2020</v>
       </c>
@@ -1356,7 +1356,7 @@
         <v>95.656967738347007</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>2020</v>
       </c>
@@ -1367,7 +1367,7 @@
         <v>101.60423967657999</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>2020</v>
       </c>
@@ -1378,7 +1378,7 @@
         <v>88.047899136379002</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>2020</v>
       </c>
@@ -1389,7 +1389,7 @@
         <v>86.637299406717005</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>2020</v>
       </c>
@@ -1400,7 +1400,7 @@
         <v>84.710302672188007</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>2020</v>
       </c>
@@ -1411,7 +1411,7 @@
         <v>84.190703506317007</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>2020</v>
       </c>
@@ -1422,7 +1422,7 @@
         <v>89.700873390390001</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>2020</v>
       </c>
@@ -1433,7 +1433,7 @@
         <v>91.391224249881006</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>2020</v>
       </c>
@@ -1444,7 +1444,7 @@
         <v>96.725027664669994</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>2020</v>
       </c>
@@ -1455,7 +1455,7 @@
         <v>102.36943882632001</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>2020</v>
       </c>
@@ -1466,7 +1466,7 @@
         <v>111.03140433196999</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>2021</v>
       </c>
@@ -1477,7 +1477,7 @@
         <v>96.760007094198002</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>2021</v>
       </c>
@@ -1488,7 +1488,7 @@
         <v>93.557321076514995</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>2021</v>
       </c>
@@ -1499,7 +1499,7 @@
         <v>109.12454246249</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>2021</v>
       </c>
@@ -1510,7 +1510,7 @@
         <v>103.15726217552999</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>2021</v>
       </c>
@@ -1521,7 +1521,7 @@
         <v>105.74560624013</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>2021</v>
       </c>
@@ -1532,7 +1532,7 @@
         <v>104.76271779402001</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>2021</v>
       </c>
@@ -1543,7 +1543,7 @@
         <v>102.05722971134</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>2021</v>
       </c>
@@ -1554,7 +1554,7 @@
         <v>108.90263676962</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>2021</v>
       </c>
@@ -1565,7 +1565,7 @@
         <v>107.16560738573</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>2021</v>
       </c>
@@ -1576,7 +1576,7 @@
         <v>112.00795223399</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>2021</v>
       </c>
@@ -1587,7 +1587,7 @@
         <v>118.25554940377999</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>2021</v>
       </c>
@@ -1598,7 +1598,7 @@
         <v>122.14098723026</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>2022</v>
       </c>
@@ -1609,7 +1609,7 @@
         <v>107.62330137856</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>2022</v>
       </c>
@@ -1620,7 +1620,7 @@
         <v>101.79654189956</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>2022</v>
       </c>
@@ -1631,7 +1631,7 @@
         <v>117.86353453477</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>2022</v>
       </c>
@@ -1642,7 +1642,7 @@
         <v>112.80099959064</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>2022</v>
       </c>
@@ -1653,7 +1653,7 @@
         <v>113.38802484260999</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>2022</v>
       </c>
@@ -1664,7 +1664,7 @@
         <v>109.36975138131</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>2022</v>
       </c>
@@ -1675,7 +1675,7 @@
         <v>104.17121454357</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>2022</v>
       </c>
@@ -1686,7 +1686,7 @@
         <v>110.27455238787999</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>2022</v>
       </c>
@@ -1695,6 +1695,411 @@
       </c>
       <c r="C118">
         <v>106.98155558275</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C119">
+        <v>106.665235771497</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C120">
+        <v>109.813664433044</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C121">
+        <v>115.753817397538</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C122">
+        <v>107.193396664484</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C123">
+        <v>102.37113867977</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C124">
+        <v>114.856504500337</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C125">
+        <v>111.945772144126</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C126">
+        <v>111.607009631672</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C127">
+        <v>107.879298186545</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C128">
+        <v>103.798245123233</v>
+      </c>
+    </row>
+    <row r="129" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C129">
+        <v>109.00309707644401</v>
+      </c>
+    </row>
+    <row r="130" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C130">
+        <v>104.98329361487301</v>
+      </c>
+    </row>
+    <row r="131" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C131">
+        <v>108.718496276639</v>
+      </c>
+    </row>
+    <row r="132" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C132">
+        <v>111.86692493818499</v>
+      </c>
+    </row>
+    <row r="133" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C133">
+        <v>117.80707790268001</v>
+      </c>
+    </row>
+    <row r="134" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C134">
+        <v>109.246657169626</v>
+      </c>
+    </row>
+    <row r="135" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C135">
+        <v>104.42439918491201</v>
+      </c>
+    </row>
+    <row r="136" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C136">
+        <v>116.909765005479</v>
+      </c>
+    </row>
+    <row r="137" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C137">
+        <v>113.99903264926699</v>
+      </c>
+    </row>
+    <row r="138" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C138">
+        <v>113.66027013681401</v>
+      </c>
+    </row>
+    <row r="139" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C139">
+        <v>109.93255869168701</v>
+      </c>
+    </row>
+    <row r="140" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C140">
+        <v>105.85150562837499</v>
+      </c>
+    </row>
+    <row r="141" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C141">
+        <v>111.056357581586</v>
+      </c>
+    </row>
+    <row r="142" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C142">
+        <v>107.036554120014</v>
+      </c>
+    </row>
+    <row r="143" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C143">
+        <v>110.77175678178</v>
+      </c>
+    </row>
+    <row r="144" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C144">
+        <v>113.920185443327</v>
+      </c>
+    </row>
+    <row r="145" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C145">
+        <v>119.860338407822</v>
+      </c>
+    </row>
+    <row r="146" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C146">
+        <v>111.299917674768</v>
+      </c>
+    </row>
+    <row r="147" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C147">
+        <v>106.477659690054</v>
+      </c>
+    </row>
+    <row r="148" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C148">
+        <v>118.96302551062</v>
+      </c>
+    </row>
+    <row r="149" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C149">
+        <v>116.052293154409</v>
+      </c>
+    </row>
+    <row r="150" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C150">
+        <v>115.713530641956</v>
+      </c>
+    </row>
+    <row r="151" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C151">
+        <v>111.985819196828</v>
+      </c>
+    </row>
+    <row r="152" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C152">
+        <v>107.90476613351601</v>
+      </c>
+    </row>
+    <row r="153" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C153">
+        <v>113.109618086727</v>
+      </c>
+    </row>
+    <row r="154" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C154">
+        <v>109.089814625156</v>
+      </c>
+    </row>
+    <row r="155" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C155">
+        <v>112.82501728692201</v>
+      </c>
+    </row>
+    <row r="156" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C156">
+        <v>115.97344594846901</v>
+      </c>
+    </row>
+    <row r="157" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C157">
+        <v>121.91359891296401</v>
+      </c>
+    </row>
+    <row r="158" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C158">
+        <v>113.35317817991</v>
+      </c>
+    </row>
+    <row r="159" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C159">
+        <v>108.530920195196</v>
+      </c>
+    </row>
+    <row r="160" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C160">
+        <v>121.01628601576201</v>
+      </c>
+    </row>
+    <row r="161" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C161">
+        <v>118.10555365955101</v>
+      </c>
+    </row>
+    <row r="162" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C162">
+        <v>117.766791147098</v>
+      </c>
+    </row>
+    <row r="163" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C163">
+        <v>114.03907970197</v>
+      </c>
+    </row>
+    <row r="164" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C164">
+        <v>109.958026638658</v>
+      </c>
+    </row>
+    <row r="165" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C165">
+        <v>115.162878591869</v>
+      </c>
+    </row>
+    <row r="166" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C166">
+        <v>111.143075130298</v>
+      </c>
+    </row>
+    <row r="167" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C167">
+        <v>114.878277792064</v>
+      </c>
+    </row>
+    <row r="168" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C168">
+        <v>118.026706453611</v>
+      </c>
+    </row>
+    <row r="169" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C169">
+        <v>123.966859418105</v>
+      </c>
+    </row>
+    <row r="170" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C170">
+        <v>115.406438685051</v>
+      </c>
+    </row>
+    <row r="171" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C171">
+        <v>110.584180700337</v>
+      </c>
+    </row>
+    <row r="172" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C172">
+        <v>123.069546520904</v>
+      </c>
+    </row>
+    <row r="173" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C173">
+        <v>120.158814164693</v>
+      </c>
+    </row>
+    <row r="174" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C174">
+        <v>119.820051652239</v>
+      </c>
+    </row>
+    <row r="175" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C175">
+        <v>116.092340207112</v>
+      </c>
+    </row>
+    <row r="176" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C176">
+        <v>112.0112871438</v>
+      </c>
+    </row>
+    <row r="177" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C177">
+        <v>117.21613909701099</v>
+      </c>
+    </row>
+    <row r="178" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C178">
+        <v>113.19633563543999</v>
+      </c>
+    </row>
+    <row r="179" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C179">
+        <v>116.931538297206</v>
+      </c>
+    </row>
+    <row r="180" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C180">
+        <v>120.079966958752</v>
+      </c>
+    </row>
+    <row r="181" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C181">
+        <v>126.02011992324699</v>
+      </c>
+    </row>
+    <row r="182" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C182">
+        <v>117.45969919019301</v>
+      </c>
+    </row>
+    <row r="183" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C183">
+        <v>112.63744120547901</v>
+      </c>
+    </row>
+    <row r="184" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C184">
+        <v>125.122807026046</v>
+      </c>
+    </row>
+    <row r="185" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C185">
+        <v>122.212074669834</v>
+      </c>
+    </row>
+    <row r="186" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C186">
+        <v>121.87331215738099</v>
+      </c>
+    </row>
+    <row r="187" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C187">
+        <v>118.14560071225399</v>
+      </c>
+    </row>
+    <row r="188" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C188">
+        <v>114.064547648942</v>
+      </c>
+    </row>
+    <row r="189" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C189">
+        <v>119.269399602153</v>
+      </c>
+    </row>
+    <row r="190" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C190">
+        <v>115.249596140581</v>
+      </c>
+    </row>
+    <row r="191" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C191">
+        <v>118.984798802347</v>
+      </c>
+    </row>
+    <row r="192" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C192">
+        <v>122.133227463894</v>
+      </c>
+    </row>
+    <row r="193" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C193">
+        <v>128.07338042838899</v>
+      </c>
+    </row>
+    <row r="194" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C194">
+        <v>119.512959695335</v>
+      </c>
+    </row>
+    <row r="195" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C195">
+        <v>114.690701710621</v>
+      </c>
+    </row>
+    <row r="196" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C196">
+        <v>127.176067531187</v>
+      </c>
+    </row>
+    <row r="197" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C197">
+        <v>124.265335174976</v>
+      </c>
+    </row>
+    <row r="198" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C198">
+        <v>123.926572662523</v>
+      </c>
+    </row>
+    <row r="199" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C199">
+        <v>120.19886121739501</v>
       </c>
     </row>
   </sheetData>
